--- a/Code/Results/Cases/Case_9_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8230577143870335</v>
+        <v>0.7825989224354828</v>
       </c>
       <c r="C2">
-        <v>0.1076345151896163</v>
+        <v>0.1516202960550999</v>
       </c>
       <c r="D2">
-        <v>0.05934209278473901</v>
+        <v>0.08165108423084178</v>
       </c>
       <c r="E2">
-        <v>0.07647514635955233</v>
+        <v>0.08374167338869398</v>
       </c>
       <c r="F2">
-        <v>1.649678946975101</v>
+        <v>1.361851052918837</v>
       </c>
       <c r="G2">
-        <v>1.350228112530559</v>
+        <v>1.049312996805227</v>
       </c>
       <c r="H2">
-        <v>0.01341810814404026</v>
+        <v>0.01110746728880432</v>
       </c>
       <c r="I2">
-        <v>0.02029456929830387</v>
+        <v>0.01391559851604374</v>
       </c>
       <c r="J2">
-        <v>0.8952640046960312</v>
+        <v>0.7385743937499569</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1157582897508576</v>
+        <v>0.2987677046229464</v>
       </c>
       <c r="M2">
-        <v>0.8376754288227914</v>
+        <v>0.2501998856200132</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1118523895990293</v>
       </c>
       <c r="O2">
-        <v>0.2847014924387068</v>
+        <v>0.8921578498242582</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3042857003426462</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7159137707856189</v>
+        <v>0.6829810537077208</v>
       </c>
       <c r="C3">
-        <v>0.09419034179751407</v>
+        <v>0.1293556665375633</v>
       </c>
       <c r="D3">
-        <v>0.05193240159569257</v>
+        <v>0.07092411838964097</v>
       </c>
       <c r="E3">
-        <v>0.06772902884143406</v>
+        <v>0.07445818538469595</v>
       </c>
       <c r="F3">
-        <v>1.553745623089895</v>
+        <v>1.300366401078762</v>
       </c>
       <c r="G3">
-        <v>1.271031929268275</v>
+        <v>1.008694237711993</v>
       </c>
       <c r="H3">
-        <v>0.01731748828339308</v>
+        <v>0.01439742189559279</v>
       </c>
       <c r="I3">
-        <v>0.02504966879879778</v>
+        <v>0.01725911428579474</v>
       </c>
       <c r="J3">
-        <v>0.8617052920124735</v>
+        <v>0.7163695223530056</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1033834854822118</v>
+        <v>0.2987186579511949</v>
       </c>
       <c r="M3">
-        <v>0.7283690976006199</v>
+        <v>0.2401656439603777</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1009297519201056</v>
       </c>
       <c r="O3">
-        <v>0.2483277372600554</v>
+        <v>0.7746698351896271</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2648685938232944</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6500340208667694</v>
+        <v>0.6215712488896088</v>
       </c>
       <c r="C4">
-        <v>0.08612575419469692</v>
+        <v>0.1160272879038331</v>
       </c>
       <c r="D4">
-        <v>0.04744746912539455</v>
+        <v>0.06443748155063389</v>
       </c>
       <c r="E4">
-        <v>0.06237652491070733</v>
+        <v>0.06877498488899292</v>
       </c>
       <c r="F4">
-        <v>1.494867778753772</v>
+        <v>1.262499838946169</v>
       </c>
       <c r="G4">
-        <v>1.222333765308221</v>
+        <v>0.9837684920333203</v>
       </c>
       <c r="H4">
-        <v>0.02005507442738785</v>
+        <v>0.01671279170699802</v>
       </c>
       <c r="I4">
-        <v>0.02836570065511301</v>
+        <v>0.01961529451384969</v>
       </c>
       <c r="J4">
-        <v>0.8411218475308573</v>
+        <v>0.7024750959937478</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09575790254462646</v>
+        <v>0.2984171129097213</v>
       </c>
       <c r="M4">
-        <v>0.6615128657809919</v>
+        <v>0.23460848812935</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09417886565374545</v>
       </c>
       <c r="O4">
-        <v>0.226078627240895</v>
+        <v>0.7027619599090542</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.240758851507298</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6227533215739527</v>
+        <v>0.5961336100444896</v>
       </c>
       <c r="C5">
-        <v>0.08326110096925277</v>
+        <v>0.1111086768953129</v>
       </c>
       <c r="D5">
-        <v>0.04578647797359281</v>
+        <v>0.06197015085148649</v>
       </c>
       <c r="E5">
-        <v>0.06022916845111581</v>
+        <v>0.06648970875665938</v>
       </c>
       <c r="F5">
-        <v>1.468747547243709</v>
+        <v>1.245371706086814</v>
       </c>
       <c r="G5">
-        <v>1.200263376552371</v>
+        <v>0.9719486502704342</v>
       </c>
       <c r="H5">
-        <v>0.02126114760243181</v>
+        <v>0.01773357639849793</v>
       </c>
       <c r="I5">
-        <v>0.02991575550218828</v>
+        <v>0.02075924076422631</v>
       </c>
       <c r="J5">
-        <v>0.8316082678826291</v>
+        <v>0.6958653717170762</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09257519801677461</v>
+        <v>0.297692969935671</v>
       </c>
       <c r="M5">
-        <v>0.6346971302390187</v>
+        <v>0.2321104992256871</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09135886516335745</v>
       </c>
       <c r="O5">
-        <v>0.2171715715808986</v>
+        <v>0.6738438043104367</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2310816510323264</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.617725744197287</v>
+        <v>0.5914802529489407</v>
       </c>
       <c r="C6">
-        <v>0.08325245614012999</v>
+        <v>0.1108269382322078</v>
       </c>
       <c r="D6">
-        <v>0.04569738265382739</v>
+        <v>0.061748533780424</v>
       </c>
       <c r="E6">
-        <v>0.05991019034820511</v>
+        <v>0.06614400095952533</v>
       </c>
       <c r="F6">
-        <v>1.461812834773482</v>
+        <v>1.240494384018632</v>
       </c>
       <c r="G6">
-        <v>1.193908807077861</v>
+        <v>0.967960021792976</v>
       </c>
       <c r="H6">
-        <v>0.02147533003912516</v>
+        <v>0.01791425405696156</v>
       </c>
       <c r="I6">
-        <v>0.03031153998482239</v>
+        <v>0.02109700749446208</v>
       </c>
       <c r="J6">
-        <v>0.8286504539506865</v>
+        <v>0.6936871680189824</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09196446331579722</v>
+        <v>0.2969193996752715</v>
       </c>
       <c r="M6">
-        <v>0.6307054465478643</v>
+        <v>0.231234981282249</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09082049092764777</v>
       </c>
       <c r="O6">
-        <v>0.2158668923191307</v>
+        <v>0.669455679021155</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2296318467216949</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6483062708163061</v>
+        <v>0.6201509825588118</v>
       </c>
       <c r="C7">
-        <v>0.08735577411673034</v>
+        <v>0.1172170783764699</v>
       </c>
       <c r="D7">
-        <v>0.04793311204051776</v>
+        <v>0.06522505504187137</v>
       </c>
       <c r="E7">
-        <v>0.06244997871641544</v>
+        <v>0.0689065213702662</v>
       </c>
       <c r="F7">
-        <v>1.4874197728127</v>
+        <v>1.253604655176701</v>
       </c>
       <c r="G7">
-        <v>1.214689527849785</v>
+        <v>0.98052161442439</v>
       </c>
       <c r="H7">
-        <v>0.02009433074579292</v>
+        <v>0.01675588121122684</v>
       </c>
       <c r="I7">
-        <v>0.02872940378901934</v>
+        <v>0.02001664928944802</v>
       </c>
       <c r="J7">
-        <v>0.8372306979845234</v>
+        <v>0.6919438763862757</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09549129219883667</v>
+        <v>0.2958743357940747</v>
       </c>
       <c r="M7">
-        <v>0.6624035734929805</v>
+        <v>0.2326653338734559</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09386652635498649</v>
       </c>
       <c r="O7">
-        <v>0.2264326858858254</v>
+        <v>0.7032866408948166</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2411251780880548</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7843051090708002</v>
+        <v>0.747032478100806</v>
       </c>
       <c r="C8">
-        <v>0.1046472944303076</v>
+        <v>0.1451566481018745</v>
       </c>
       <c r="D8">
-        <v>0.05745032201192402</v>
+        <v>0.07966310133448928</v>
       </c>
       <c r="E8">
-        <v>0.0735917191280997</v>
+        <v>0.08089716753663723</v>
       </c>
       <c r="F8">
-        <v>1.607204518018378</v>
+        <v>1.323117062612852</v>
       </c>
       <c r="G8">
-        <v>1.313208498270399</v>
+        <v>1.036244165984471</v>
       </c>
       <c r="H8">
-        <v>0.01471475230834091</v>
+        <v>0.01222894775115393</v>
       </c>
       <c r="I8">
-        <v>0.02225704044139398</v>
+        <v>0.01548936353006169</v>
       </c>
       <c r="J8">
-        <v>0.8787214148150184</v>
+        <v>0.7026028341749821</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1111976091572586</v>
+        <v>0.2942039579350109</v>
       </c>
       <c r="M8">
-        <v>0.8015917359687705</v>
+        <v>0.2426927096032898</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1075628123553685</v>
       </c>
       <c r="O8">
-        <v>0.272772043461714</v>
+        <v>0.8523825188750891</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2914760474077625</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.053031917158933</v>
+        <v>0.9958915358025138</v>
       </c>
       <c r="C9">
-        <v>0.1379551620661204</v>
+        <v>0.2009414262047073</v>
       </c>
       <c r="D9">
-        <v>0.07575865080574573</v>
+        <v>0.1067656989248178</v>
       </c>
       <c r="E9">
-        <v>0.09545025460680279</v>
+        <v>0.1041687820869974</v>
       </c>
       <c r="F9">
-        <v>1.855412225983272</v>
+        <v>1.479946170718179</v>
       </c>
       <c r="G9">
-        <v>1.519347665966848</v>
+        <v>1.146878309446137</v>
       </c>
       <c r="H9">
-        <v>0.007009557931423827</v>
+        <v>0.005753386275019756</v>
       </c>
       <c r="I9">
-        <v>0.01236600108735786</v>
+        <v>0.008523376435503494</v>
       </c>
       <c r="J9">
-        <v>0.9671186930347062</v>
+        <v>0.7533818383530928</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1422582075541712</v>
+        <v>0.294518690217032</v>
       </c>
       <c r="M9">
-        <v>1.074829723983243</v>
+        <v>0.2718625532556729</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1347686272201329</v>
       </c>
       <c r="O9">
-        <v>0.3636104206574089</v>
+        <v>1.145730543793121</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3900610551394053</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.25174951277279</v>
+        <v>1.180706643927977</v>
       </c>
       <c r="C10">
-        <v>0.1645335875979157</v>
+        <v>0.242561021783942</v>
       </c>
       <c r="D10">
-        <v>0.08805553991982862</v>
+        <v>0.1267980925101426</v>
       </c>
       <c r="E10">
-        <v>0.1066213606709674</v>
+        <v>0.1164802369706379</v>
       </c>
       <c r="F10">
-        <v>1.99726821342783</v>
+        <v>1.547094256454926</v>
       </c>
       <c r="G10">
-        <v>1.634905907413923</v>
+        <v>1.218644929750894</v>
       </c>
       <c r="H10">
-        <v>0.003685142446814726</v>
+        <v>0.003040897141127541</v>
       </c>
       <c r="I10">
-        <v>0.007613825831064958</v>
+        <v>0.005396647261472154</v>
       </c>
       <c r="J10">
-        <v>1.014151414610495</v>
+        <v>0.7361617676456973</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1559410750962584</v>
+        <v>0.2845990061604198</v>
       </c>
       <c r="M10">
-        <v>1.28056245769011</v>
+        <v>0.2863651269534913</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1456266092823029</v>
       </c>
       <c r="O10">
-        <v>0.424080986836131</v>
+        <v>1.363604533858023</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4559518206500996</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.356119680428009</v>
+        <v>1.289024636248456</v>
       </c>
       <c r="C11">
-        <v>0.1808573518110563</v>
+        <v>0.2535125208712543</v>
       </c>
       <c r="D11">
-        <v>0.07909011554622225</v>
+        <v>0.1172513309289087</v>
       </c>
       <c r="E11">
-        <v>0.07234673774791389</v>
+        <v>0.08069244784574181</v>
       </c>
       <c r="F11">
-        <v>1.734560688837988</v>
+        <v>1.312431247193729</v>
       </c>
       <c r="G11">
-        <v>1.404879738899865</v>
+        <v>1.078960437587369</v>
       </c>
       <c r="H11">
-        <v>0.02225534084225345</v>
+        <v>0.02167812632779231</v>
       </c>
       <c r="I11">
-        <v>0.007087905089026236</v>
+        <v>0.005366209738896899</v>
       </c>
       <c r="J11">
-        <v>0.8926488385481548</v>
+        <v>0.5798387837664336</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09626250794567426</v>
+        <v>0.2364719101736092</v>
       </c>
       <c r="M11">
-        <v>1.395467756383624</v>
+        <v>0.242169756035981</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08911972858824413</v>
       </c>
       <c r="O11">
-        <v>0.3908267999381323</v>
+        <v>1.472809277166135</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4200389314792545</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.405252862900966</v>
+        <v>1.344283780216898</v>
       </c>
       <c r="C12">
-        <v>0.1871222309838316</v>
+        <v>0.2520131104223111</v>
       </c>
       <c r="D12">
-        <v>0.0686713201566107</v>
+        <v>0.1034760157207586</v>
       </c>
       <c r="E12">
-        <v>0.04779710131429304</v>
+        <v>0.05438864784335706</v>
       </c>
       <c r="F12">
-        <v>1.509700658402153</v>
+        <v>1.133677738307426</v>
       </c>
       <c r="G12">
-        <v>1.212123467288905</v>
+        <v>0.952235152777348</v>
       </c>
       <c r="H12">
-        <v>0.06125066814865932</v>
+        <v>0.06064824198897156</v>
       </c>
       <c r="I12">
-        <v>0.006920585089445375</v>
+        <v>0.005258502113923313</v>
       </c>
       <c r="J12">
-        <v>0.7928102189572144</v>
+        <v>0.4934284278375003</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06078019237528309</v>
+        <v>0.2061603190084043</v>
       </c>
       <c r="M12">
-        <v>1.447742648825709</v>
+        <v>0.2093019773125881</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0569119413831416</v>
       </c>
       <c r="O12">
-        <v>0.3507266024865174</v>
+        <v>1.518287425587857</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3765169744386228</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.412012132668622</v>
+        <v>1.359236571718384</v>
       </c>
       <c r="C13">
-        <v>0.1879667596041656</v>
+        <v>0.2437860818509989</v>
       </c>
       <c r="D13">
-        <v>0.05740014641656188</v>
+        <v>0.08616900752492285</v>
       </c>
       <c r="E13">
-        <v>0.02953799388871836</v>
+        <v>0.03420322300388356</v>
       </c>
       <c r="F13">
-        <v>1.290325467370891</v>
+        <v>0.9814353082375717</v>
       </c>
       <c r="G13">
-        <v>1.025656035019622</v>
+        <v>0.8160783464934411</v>
       </c>
       <c r="H13">
-        <v>0.1176635044232057</v>
+        <v>0.1169431644809151</v>
       </c>
       <c r="I13">
-        <v>0.007421601223207119</v>
+        <v>0.005554849902107861</v>
       </c>
       <c r="J13">
-        <v>0.6980311138025002</v>
+        <v>0.4500618004791335</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.04146925946381064</v>
+        <v>0.1845957163479355</v>
       </c>
       <c r="M13">
-        <v>1.4562682953391</v>
+        <v>0.1819674291275817</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04090511493567117</v>
       </c>
       <c r="O13">
-        <v>0.3041156522632633</v>
+        <v>1.519280886326413</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3255546630525998</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.397107376072228</v>
+        <v>1.35103998407709</v>
       </c>
       <c r="C14">
-        <v>0.1865657759312853</v>
+        <v>0.2354614348848258</v>
       </c>
       <c r="D14">
-        <v>0.04940038037776162</v>
+        <v>0.0730911352341721</v>
       </c>
       <c r="E14">
-        <v>0.02062627369531178</v>
+        <v>0.02404146410009123</v>
       </c>
       <c r="F14">
-        <v>1.140949925284261</v>
+        <v>0.8854225121812362</v>
       </c>
       <c r="G14">
-        <v>0.8992095946928487</v>
+        <v>0.7190283253928413</v>
       </c>
       <c r="H14">
-        <v>0.1676425870763438</v>
+        <v>0.1667905693098106</v>
       </c>
       <c r="I14">
-        <v>0.008199621996534567</v>
+        <v>0.00607293255628516</v>
       </c>
       <c r="J14">
-        <v>0.634477735723749</v>
+        <v>0.4338868021013553</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.03760536849511897</v>
+        <v>0.1726402509021447</v>
       </c>
       <c r="M14">
-        <v>1.442851312070928</v>
+        <v>0.1651683516262814</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03908775372054674</v>
       </c>
       <c r="O14">
-        <v>0.2692250505922829</v>
+        <v>1.500179680466601</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2872937780071396</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.38370632968855</v>
+        <v>1.339731653911088</v>
       </c>
       <c r="C15">
-        <v>0.1856177800367362</v>
+        <v>0.2325984777202876</v>
       </c>
       <c r="D15">
-        <v>0.04736560808737522</v>
+        <v>0.06940834226715253</v>
       </c>
       <c r="E15">
-        <v>0.01892615734929137</v>
+        <v>0.02205300428630164</v>
       </c>
       <c r="F15">
-        <v>1.102107430346095</v>
+        <v>0.8634123819386517</v>
       </c>
       <c r="G15">
-        <v>0.8662111058444282</v>
+        <v>0.6921843465701443</v>
       </c>
       <c r="H15">
-        <v>0.180439887274872</v>
+        <v>0.1795264093072717</v>
       </c>
       <c r="I15">
-        <v>0.008696397756104979</v>
+        <v>0.006459442937932991</v>
       </c>
       <c r="J15">
-        <v>0.6183047515906281</v>
+        <v>0.4347384798721023</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.03783937313985763</v>
+        <v>0.1704226350916116</v>
       </c>
       <c r="M15">
-        <v>1.43065397073147</v>
+        <v>0.1613714145378005</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03978770931720632</v>
       </c>
       <c r="O15">
-        <v>0.2593872132709194</v>
+        <v>1.486400522495671</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.27643879978082</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.295118809272935</v>
+        <v>1.254597530259787</v>
       </c>
       <c r="C16">
-        <v>0.1746751446843717</v>
+        <v>0.2192384928715541</v>
       </c>
       <c r="D16">
-        <v>0.04493845454942402</v>
+        <v>0.06308144370876789</v>
       </c>
       <c r="E16">
-        <v>0.01847801393092929</v>
+        <v>0.0215248889438362</v>
       </c>
       <c r="F16">
-        <v>1.085953272605451</v>
+        <v>0.880734660292994</v>
       </c>
       <c r="G16">
-        <v>0.8537090119178856</v>
+        <v>0.6714677342285427</v>
       </c>
       <c r="H16">
-        <v>0.1691607268750062</v>
+        <v>0.1679496408229397</v>
       </c>
       <c r="I16">
-        <v>0.01066742933335618</v>
+        <v>0.007790429169834745</v>
       </c>
       <c r="J16">
-        <v>0.6165557239262682</v>
+        <v>0.4827759418768096</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03655786999359734</v>
+        <v>0.1784568429346187</v>
       </c>
       <c r="M16">
-        <v>1.340166950332133</v>
+        <v>0.16538934777099</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03868858039788314</v>
       </c>
       <c r="O16">
-        <v>0.2445401316833227</v>
+        <v>1.394465633035765</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2598005424343839</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.235252948089936</v>
+        <v>1.193972114529203</v>
       </c>
       <c r="C17">
-        <v>0.1671025636359502</v>
+        <v>0.2131778869140675</v>
       </c>
       <c r="D17">
-        <v>0.04725326535769625</v>
+        <v>0.06519984649597177</v>
       </c>
       <c r="E17">
-        <v>0.02215850817868947</v>
+        <v>0.02565876665128908</v>
       </c>
       <c r="F17">
-        <v>1.150548000611849</v>
+        <v>0.9427263572092244</v>
       </c>
       <c r="G17">
-        <v>0.9091867960131594</v>
+        <v>0.7071559888654662</v>
       </c>
       <c r="H17">
-        <v>0.1321863235152136</v>
+        <v>0.1308173888899233</v>
       </c>
       <c r="I17">
-        <v>0.01183606984066987</v>
+        <v>0.008602881231377424</v>
       </c>
       <c r="J17">
-        <v>0.6480412400059521</v>
+        <v>0.5274878736837394</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.03594125810570015</v>
+        <v>0.1913273010235628</v>
       </c>
       <c r="M17">
-        <v>1.278184294582246</v>
+        <v>0.1765762976532166</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03740166492573471</v>
       </c>
       <c r="O17">
-        <v>0.2513186677268777</v>
+        <v>1.333992681251488</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2669952926911421</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.194604206980756</v>
+        <v>1.148679677734549</v>
       </c>
       <c r="C18">
-        <v>0.1604049601399566</v>
+        <v>0.2117667222947404</v>
       </c>
       <c r="D18">
-        <v>0.05388575128025508</v>
+        <v>0.07430791066770581</v>
       </c>
       <c r="E18">
-        <v>0.03319810610177498</v>
+        <v>0.03770125404472502</v>
       </c>
       <c r="F18">
-        <v>1.305023595698785</v>
+        <v>1.064988640883968</v>
       </c>
       <c r="G18">
-        <v>1.041755607035</v>
+        <v>0.7991228386825782</v>
       </c>
       <c r="H18">
-        <v>0.07941730936826019</v>
+        <v>0.07803420844760467</v>
       </c>
       <c r="I18">
-        <v>0.01194314027125731</v>
+        <v>0.0085595682170716</v>
       </c>
       <c r="J18">
-        <v>0.7177617498526132</v>
+        <v>0.5871392053187208</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.04437240938163711</v>
+        <v>0.2131294445070715</v>
       </c>
       <c r="M18">
-        <v>1.232595269699942</v>
+        <v>0.198285517205381</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04416086386938112</v>
       </c>
       <c r="O18">
-        <v>0.2780832424915261</v>
+        <v>1.29316260107629</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2961322271882949</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169839048790038</v>
+        <v>1.116990529021649</v>
       </c>
       <c r="C19">
-        <v>0.1577228967965141</v>
+        <v>0.2172707184827658</v>
       </c>
       <c r="D19">
-        <v>0.06486616996942729</v>
+        <v>0.08984466363953914</v>
       </c>
       <c r="E19">
-        <v>0.05464539963360693</v>
+        <v>0.06069053659165746</v>
       </c>
       <c r="F19">
-        <v>1.524495205161514</v>
+        <v>1.230751016944666</v>
       </c>
       <c r="G19">
-        <v>1.22884486637129</v>
+        <v>0.9286263490974989</v>
       </c>
       <c r="H19">
-        <v>0.03337787900680667</v>
+        <v>0.03212096159986544</v>
       </c>
       <c r="I19">
-        <v>0.01173492292729339</v>
+        <v>0.008498104488644742</v>
       </c>
       <c r="J19">
-        <v>0.8138278405135111</v>
+        <v>0.6578906960018855</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07210074969851732</v>
+        <v>0.2409444285377305</v>
       </c>
       <c r="M19">
-        <v>1.206349880378667</v>
+        <v>0.2273397148465754</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06913808407536237</v>
       </c>
       <c r="O19">
-        <v>0.3215177075348166</v>
+        <v>1.273701441587406</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3434246500369582</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.195177118271829</v>
+        <v>1.128257423339164</v>
       </c>
       <c r="C20">
-        <v>0.16157301580634</v>
+        <v>0.2370582607606906</v>
       </c>
       <c r="D20">
-        <v>0.08634571646604883</v>
+        <v>0.1218879186080244</v>
       </c>
       <c r="E20">
-        <v>0.1037801658182254</v>
+        <v>0.1130396945101388</v>
       </c>
       <c r="F20">
-        <v>1.936475936599592</v>
+        <v>1.522603368927903</v>
       </c>
       <c r="G20">
-        <v>1.58050219541164</v>
+        <v>1.173116906950639</v>
       </c>
       <c r="H20">
-        <v>0.004447720650769593</v>
+        <v>0.003639720747351749</v>
       </c>
       <c r="I20">
-        <v>0.00964360711725476</v>
+        <v>0.007149984755601579</v>
       </c>
       <c r="J20">
-        <v>0.9895658657636091</v>
+        <v>0.757004395853258</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1512607352360362</v>
+        <v>0.2850086026195626</v>
       </c>
       <c r="M20">
-        <v>1.230414344031317</v>
+        <v>0.2800538204939755</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1421344515278449</v>
       </c>
       <c r="O20">
-        <v>0.4093622304732634</v>
+        <v>1.310690879552538</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4393848642287992</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.345969392668991</v>
+        <v>1.268001354740335</v>
       </c>
       <c r="C21">
-        <v>0.1813190177374224</v>
+        <v>0.2661460139128451</v>
       </c>
       <c r="D21">
-        <v>0.09842729166531683</v>
+        <v>0.1477594501945418</v>
       </c>
       <c r="E21">
-        <v>0.1203229245172679</v>
+        <v>0.1323772487780097</v>
       </c>
       <c r="F21">
-        <v>2.109212752940934</v>
+        <v>1.563934945594383</v>
       </c>
       <c r="G21">
-        <v>1.724789150303536</v>
+        <v>1.316662549257103</v>
       </c>
       <c r="H21">
-        <v>0.002029356334584786</v>
+        <v>0.001678517057449813</v>
       </c>
       <c r="I21">
-        <v>0.006418921728883475</v>
+        <v>0.005087265966481347</v>
       </c>
       <c r="J21">
-        <v>1.053839244651215</v>
+        <v>0.639745118420052</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1759180254070358</v>
+        <v>0.274222935109659</v>
       </c>
       <c r="M21">
-        <v>1.385176317104623</v>
+        <v>0.2876945156313013</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1620338558534016</v>
       </c>
       <c r="O21">
-        <v>0.4669243181677061</v>
+        <v>1.471863571667654</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5035303334406436</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.447488942167212</v>
+        <v>1.362486781664586</v>
       </c>
       <c r="C22">
-        <v>0.1929281805518031</v>
+        <v>0.2827120097879856</v>
       </c>
       <c r="D22">
-        <v>0.1048030444824946</v>
+        <v>0.1635390379633037</v>
       </c>
       <c r="E22">
-        <v>0.1284408461973428</v>
+        <v>0.1423526888600328</v>
       </c>
       <c r="F22">
-        <v>2.212405246642632</v>
+        <v>1.579018675701661</v>
       </c>
       <c r="G22">
-        <v>1.812291375735668</v>
+        <v>1.413328181990693</v>
       </c>
       <c r="H22">
-        <v>0.001049842513743071</v>
+        <v>0.000890131704091246</v>
       </c>
       <c r="I22">
-        <v>0.004498643505082001</v>
+        <v>0.003690705892702262</v>
       </c>
       <c r="J22">
-        <v>1.092446926476953</v>
+        <v>0.5628801708459008</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1877792795109343</v>
+        <v>0.2659088333320447</v>
       </c>
       <c r="M22">
-        <v>1.486400675605921</v>
+        <v>0.2911700766833576</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1708548075045471</v>
       </c>
       <c r="O22">
-        <v>0.5004421685999958</v>
+        <v>1.576409715625715</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5412076173705955</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.394978512740465</v>
+        <v>1.313244594261761</v>
       </c>
       <c r="C23">
-        <v>0.185142106357759</v>
+        <v>0.27257522931518</v>
       </c>
       <c r="D23">
-        <v>0.100768635893985</v>
+        <v>0.1534813467327041</v>
       </c>
       <c r="E23">
-        <v>0.1239774560076299</v>
+        <v>0.1366946804386231</v>
       </c>
       <c r="F23">
-        <v>2.165617227289715</v>
+        <v>1.584911732003462</v>
       </c>
       <c r="G23">
-        <v>1.774185578804889</v>
+        <v>1.360668510670479</v>
       </c>
       <c r="H23">
-        <v>0.00152464868671931</v>
+        <v>0.001268582964557119</v>
       </c>
       <c r="I23">
-        <v>0.005130679899477464</v>
+        <v>0.003993481276770794</v>
       </c>
       <c r="J23">
-        <v>1.076195899333641</v>
+        <v>0.6204640372759229</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1817188090227759</v>
+        <v>0.2732809212771166</v>
       </c>
       <c r="M23">
-        <v>1.430809955011341</v>
+        <v>0.2928593755843067</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1665917067641587</v>
       </c>
       <c r="O23">
-        <v>0.4819586685965476</v>
+        <v>1.519809985725374</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5203640844948509</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.193868068463189</v>
+        <v>1.125942212269962</v>
       </c>
       <c r="C24">
-        <v>0.1587146003888193</v>
+        <v>0.2345129180919798</v>
       </c>
       <c r="D24">
-        <v>0.0866533250823025</v>
+        <v>0.1226667819360472</v>
       </c>
       <c r="E24">
-        <v>0.1073943636731265</v>
+        <v>0.1168757162944232</v>
       </c>
       <c r="F24">
-        <v>1.976376707630337</v>
+        <v>1.553027236433508</v>
       </c>
       <c r="G24">
-        <v>1.617099463075562</v>
+        <v>1.19863072560166</v>
       </c>
       <c r="H24">
-        <v>0.004203384222790207</v>
+        <v>0.003413992410996491</v>
       </c>
       <c r="I24">
-        <v>0.009048261006022962</v>
+        <v>0.006476451459700883</v>
       </c>
       <c r="J24">
-        <v>1.008233259576656</v>
+        <v>0.7714897431732197</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1584219193121754</v>
+        <v>0.2912418847274267</v>
       </c>
       <c r="M24">
-        <v>1.223946760218467</v>
+        <v>0.2865246136036816</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1488229540078763</v>
       </c>
       <c r="O24">
-        <v>0.413268297064775</v>
+        <v>1.305052082406519</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4438118390326338</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9778010152729735</v>
+        <v>0.9264450261686363</v>
       </c>
       <c r="C25">
-        <v>0.1310834329741226</v>
+        <v>0.1885553216431219</v>
       </c>
       <c r="D25">
-        <v>0.07167566290026883</v>
+        <v>0.09983634668236618</v>
       </c>
       <c r="E25">
-        <v>0.08969657564912481</v>
+        <v>0.09791382057318998</v>
       </c>
       <c r="F25">
-        <v>1.775340506584328</v>
+        <v>1.432179712602689</v>
       </c>
       <c r="G25">
-        <v>1.450295647816247</v>
+        <v>1.103531912717756</v>
       </c>
       <c r="H25">
-        <v>0.008789083015744908</v>
+        <v>0.007231841104398673</v>
       </c>
       <c r="I25">
-        <v>0.01520515278135814</v>
+        <v>0.01071306561694474</v>
       </c>
       <c r="J25">
-        <v>0.9364011303101307</v>
+        <v>0.7452374493328477</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1334474849115921</v>
+        <v>0.2929669264833734</v>
       </c>
       <c r="M25">
-        <v>1.002852699868981</v>
+        <v>0.2617907316872703</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1272101034148108</v>
       </c>
       <c r="O25">
-        <v>0.3397959473741352</v>
+        <v>1.068448391408026</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.3639616115216739</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
